--- a/src/it/resources/testemptycolumn.xlsx
+++ b/src/it/resources/testemptycolumn.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jornfranke/repos/work/spark-hadoopoffice-ds/src/it/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924C46ED-590A-294C-9242-0108008CF075}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92F8ED6-405B-A841-8BA6-FCE4F28BC51D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -409,7 +412,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="H2" sqref="H2:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -474,7 +477,7 @@
       <c r="G2" s="3">
         <v>3</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="3">
         <v>100</v>
       </c>
       <c r="I2" s="3">
@@ -504,7 +507,7 @@
       <c r="G3" s="3">
         <v>4</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="3">
         <v>65335</v>
       </c>
       <c r="I3" s="3">
@@ -533,7 +536,7 @@
       <c r="G4" s="3">
         <v>5</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="3">
         <v>1</v>
       </c>
       <c r="I4" s="3">
@@ -562,7 +565,7 @@
       <c r="G5" s="3">
         <v>250</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="3">
         <v>250</v>
       </c>
       <c r="I5" s="3">
@@ -584,7 +587,7 @@
       <c r="G6" s="3">
         <v>3</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="3">
         <v>5</v>
       </c>
       <c r="I6" s="3">
@@ -613,7 +616,7 @@
       <c r="G7" s="3">
         <v>100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="3">
         <v>10000</v>
       </c>
       <c r="I7" s="3">
